--- a/src/test/resources/fill/style.xlsx
+++ b/src/test/resources/fill/style.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/src/test/resources/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37570C2E-841A-554E-8BCD-7624E50A6B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B97915-0560-E84F-9B3B-F0260607EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="6460" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,31 +40,31 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{.name}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{.number}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{.date}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{.name}今年{.number}岁了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>\{.name\}忽略，{.name}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -80,14 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -96,27 +88,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -124,10 +99,16 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -135,10 +116,9 @@
       <u/>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -146,10 +126,23 @@
       <u/>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -214,28 +207,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +538,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -556,47 +549,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -610,7 +603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -624,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
